--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Southern Giant Petrel_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Southern Giant Petrel_South Georgia.xlsx
@@ -4301,13 +4301,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F69E3E-1DC9-4541-9EFB-34DDA06BAFE1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E19F8565-AE56-4CAF-8B06-FC1E84A0C064}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DD74D2-B671-4666-87F7-447B5D3FD128}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C5D7658-39ED-4CC8-B67F-BF26289E4FF4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3ACF536-73FD-4CB7-B934-021501A2DD6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48F1965C-1CA6-48CE-974F-D4002D089AD1}"/>
 </file>